--- a/config_1.12/task_fish_daily_server.xlsx
+++ b/config_1.12/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="358">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1457,6 +1457,10 @@
   </si>
   <si>
     <t>vip_fanbei_award_level_task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2223,7 +2227,7 @@
   <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8378,7 +8382,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9669,7 +9673,7 @@
         <v>340</v>
       </c>
       <c r="D91" s="35">
-        <v>0</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -9807,10 +9811,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9818,7 +9822,7 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="143.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="125.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
   </cols>
@@ -10386,6 +10390,23 @@
         <v>346</v>
       </c>
       <c r="E32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E33" s="1">
         <v>3</v>
       </c>
     </row>
@@ -10400,7 +10421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="A96" sqref="A96:A147"/>
     </sheetView>
   </sheetViews>
